--- a/Documentation/IPASS Logboek.xlsx
+++ b/Documentation/IPASS Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repos\IPASS_2019\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C30253-AB84-47A0-8960-7C5A4575120A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9474F8-1784-4E63-A009-1C88A9EDEFC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E9BC45E-42C1-403B-A5CE-71024FC6D95E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>IPASS Xiao yi Hu</t>
   </si>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2AF77B-8E0B-44CD-A395-72E34AAED72F}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A9" sqref="A9:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,6 +543,56 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/IPASS Logboek.xlsx
+++ b/Documentation/IPASS Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repos\IPASS_2019\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9474F8-1784-4E63-A009-1C88A9EDEFC1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5A431-6D7F-4A5A-9778-3D25E9D73519}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E9BC45E-42C1-403B-A5CE-71024FC6D95E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>IPASS Xiao yi Hu</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>creating communication protocol</t>
+  </si>
+  <si>
+    <t>week 2</t>
+  </si>
+  <si>
+    <t>pin aansturing op arduino</t>
+  </si>
+  <si>
+    <t>communicatie protocol</t>
+  </si>
+  <si>
+    <t>serial port adjustment to accept uint8_t and char</t>
+  </si>
+  <si>
+    <t>dubugging communicatie</t>
   </si>
 </sst>
 </file>
@@ -473,16 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2AF77B-8E0B-44CD-A395-72E34AAED72F}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="1" max="2" width="43.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
@@ -545,7 +559,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -567,30 +581,23 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/IPASS Logboek.xlsx
+++ b/Documentation/IPASS Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repos\IPASS_2019\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E5A431-6D7F-4A5A-9778-3D25E9D73519}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6495D3-CC57-438F-B874-86B1D2719B33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E9BC45E-42C1-403B-A5CE-71024FC6D95E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>IPASS Xiao yi Hu</t>
   </si>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t>dubugging communicatie</t>
+  </si>
+  <si>
+    <t>debugging communicatie</t>
+  </si>
+  <si>
+    <t>fixed behaviour duePins class</t>
+  </si>
+  <si>
+    <t>Pin_out done for now</t>
+  </si>
+  <si>
+    <t>Pin_in done for now</t>
+  </si>
+  <si>
+    <t>pin_adc</t>
+  </si>
+  <si>
+    <t>week 3</t>
+  </si>
+  <si>
+    <t>pin_adc compilable</t>
+  </si>
+  <si>
+    <t>pin_in_out done</t>
   </si>
 </sst>
 </file>
@@ -488,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2AF77B-8E0B-44CD-A395-72E34AAED72F}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,15 +613,62 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/IPASS Logboek.xlsx
+++ b/Documentation/IPASS Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repos\IPASS_2019\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6495D3-CC57-438F-B874-86B1D2719B33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57EBD32-C46C-4498-BFE9-05AF051D12EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E9BC45E-42C1-403B-A5CE-71024FC6D95E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>IPASS Xiao yi Hu</t>
   </si>
@@ -116,6 +115,57 @@
   </si>
   <si>
     <t>pin_in_out done</t>
+  </si>
+  <si>
+    <t>acknowedge bytes</t>
+  </si>
+  <si>
+    <t>major restructuring library</t>
+  </si>
+  <si>
+    <t>dummy pins</t>
+  </si>
+  <si>
+    <t>all_from_pin_out_t</t>
+  </si>
+  <si>
+    <t>acknowledge bytes weggehaald</t>
+  </si>
+  <si>
+    <t>due_remote_primitives</t>
+  </si>
+  <si>
+    <t>formatting opmooing</t>
+  </si>
+  <si>
+    <t>hc595 bitbanged spi protocol</t>
+  </si>
+  <si>
+    <t>removed hc595</t>
+  </si>
+  <si>
+    <t>port_out_from_pins_t</t>
+  </si>
+  <si>
+    <t>port_in_out_from_pins_t</t>
+  </si>
+  <si>
+    <t>port_in_from_pins_t</t>
+  </si>
+  <si>
+    <t>all_from_port_out_t</t>
+  </si>
+  <si>
+    <t>port_out primitives</t>
+  </si>
+  <si>
+    <t>all_from_pin_out_t tested</t>
+  </si>
+  <si>
+    <t>port_out_from_pins_t tested</t>
+  </si>
+  <si>
+    <t>port_in_out_from_pins_t tested</t>
   </si>
 </sst>
 </file>
@@ -512,16 +562,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2AF77B-8E0B-44CD-A395-72E34AAED72F}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="43.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="39" customWidth="1"/>
     <col min="5" max="5" width="32.85546875" customWidth="1"/>
   </cols>
@@ -666,9 +716,76 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/IPASS Logboek.xlsx
+++ b/Documentation/IPASS Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repos\IPASS_2019\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57EBD32-C46C-4498-BFE9-05AF051D12EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539BA9AF-23B7-4AAE-AD4D-2EFFBEDB92E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E9BC45E-42C1-403B-A5CE-71024FC6D95E}"/>
   </bookViews>

--- a/Documentation/IPASS Logboek.xlsx
+++ b/Documentation/IPASS Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repos\IPASS_2019\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\IPASS_2019\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539BA9AF-23B7-4AAE-AD4D-2EFFBEDB92E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DC6972-EEC9-4887-8DA4-BF924F2C58FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E9BC45E-42C1-403B-A5CE-71024FC6D95E}"/>
+    <workbookView xWindow="28680" yWindow="4455" windowWidth="19440" windowHeight="15150" xr2:uid="{4E9BC45E-42C1-403B-A5CE-71024FC6D95E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>IPASS Xiao yi Hu</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>port_in_out_from_pins_t tested</t>
+  </si>
+  <si>
+    <t>testplan programs written</t>
   </si>
 </sst>
 </file>
@@ -562,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2AF77B-8E0B-44CD-A395-72E34AAED72F}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,6 +791,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/IPASS Logboek.xlsx
+++ b/Documentation/IPASS Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Repos\IPASS_2019\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_repos\IPASS_2019\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DC6972-EEC9-4887-8DA4-BF924F2C58FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DEDFF5-D6D9-400F-8ADC-A8DC94D1B3B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4455" windowWidth="19440" windowHeight="15150" xr2:uid="{4E9BC45E-42C1-403B-A5CE-71024FC6D95E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4E9BC45E-42C1-403B-A5CE-71024FC6D95E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>IPASS Xiao yi Hu</t>
   </si>
@@ -168,7 +168,22 @@
     <t>port_in_out_from_pins_t tested</t>
   </si>
   <si>
-    <t>testplan programs written</t>
+    <t>doxygen afmaken</t>
+  </si>
+  <si>
+    <t>doxygen begonnen</t>
+  </si>
+  <si>
+    <t>testplan afmaken</t>
+  </si>
+  <si>
+    <t>poster maken</t>
+  </si>
+  <si>
+    <t>bugfixes</t>
+  </si>
+  <si>
+    <t>restructuring van classes en functies</t>
   </si>
 </sst>
 </file>
@@ -568,7 +583,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -729,8 +744,11 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -740,32 +758,44 @@
       <c r="C18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
       </c>
@@ -773,7 +803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>34</v>
       </c>
@@ -781,19 +811,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
